--- a/template.xlsx
+++ b/template.xlsx
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="H2" t="n">
         <v>800</v>
       </c>
       <c r="I2" t="n">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="J2" t="n">
         <v>0.33</v>
@@ -576,19 +576,19 @@
         <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="M2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="N2" t="n">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="O2" t="n">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="P2" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="n">
         <v>54.54545454545455</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -631,11 +631,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>850</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H3" t="n">
+        <v>800</v>
+      </c>
       <c r="I3" t="n">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="J3" t="n">
         <v>0.38</v>
@@ -644,15 +646,19 @@
         <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>660</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>490</v>
+      </c>
+      <c r="M3" t="n">
+        <v>390</v>
+      </c>
+      <c r="N3" t="n">
+        <v>490</v>
+      </c>
       <c r="O3" t="n">
-        <v>660</v>
+        <v>490</v>
       </c>
       <c r="P3" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="n">
         <v>62.06896551724138</v>
@@ -665,7 +671,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -757,9 +765,11 @@
       <c r="G5" t="n">
         <v>870</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>800</v>
+      </c>
       <c r="I5" t="n">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="J5" t="n">
         <v>0.31</v>
@@ -768,12 +778,16 @@
         <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>510</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+        <v>515</v>
+      </c>
+      <c r="M5" t="n">
+        <v>430</v>
+      </c>
+      <c r="N5" t="n">
+        <v>515</v>
+      </c>
       <c r="O5" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="P5" t="n">
         <v>70</v>
@@ -789,7 +803,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -964,19 +980,19 @@
         <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>702</v>
+        <v>555</v>
       </c>
       <c r="M8" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="N8" t="n">
-        <v>702</v>
+        <v>555</v>
       </c>
       <c r="O8" t="n">
-        <v>702</v>
+        <v>555</v>
       </c>
       <c r="P8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q8" t="n">
         <v>36</v>
@@ -1064,10 +1080,8 @@
       <c r="B10" t="n">
         <v>5.5</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0,476</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0.476</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1083,11 +1097,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>850</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H10" t="n">
+        <v>800</v>
+      </c>
       <c r="I10" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="J10" t="n">
         <v>0.2</v>
@@ -1098,8 +1114,12 @@
       <c r="L10" t="n">
         <v>530</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>450</v>
+      </c>
+      <c r="N10" t="n">
+        <v>530</v>
+      </c>
       <c r="O10" t="n">
         <v>530</v>
       </c>
@@ -1117,7 +1137,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1145,28 +1167,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>870</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H11" t="n">
+        <v>800</v>
+      </c>
       <c r="I11" t="n">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="J11" t="n">
         <v>0.27</v>
       </c>
       <c r="K11" t="n">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>655</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>650</v>
+      </c>
+      <c r="M11" t="n">
+        <v>560</v>
+      </c>
+      <c r="N11" t="n">
+        <v>650</v>
+      </c>
       <c r="O11" t="n">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P11" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="n">
         <v>55.38461538461539</v>
@@ -1179,7 +1207,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1207,9 +1237,11 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>860</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H12" t="n">
+        <v>800</v>
+      </c>
       <c r="I12" t="n">
         <v>920</v>
       </c>
@@ -1220,15 +1252,19 @@
         <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>673</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+        <v>490</v>
+      </c>
+      <c r="M12" t="n">
+        <v>390</v>
+      </c>
+      <c r="N12" t="n">
+        <v>490</v>
+      </c>
       <c r="O12" t="n">
-        <v>673</v>
+        <v>490</v>
       </c>
       <c r="P12" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q12" t="n">
         <v>37.89473684210526</v>
@@ -1241,7 +1277,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1331,9 +1369,11 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>860</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H14" t="n">
+        <v>800</v>
+      </c>
       <c r="I14" t="n">
         <v>920</v>
       </c>
@@ -1344,15 +1384,19 @@
         <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>715</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+        <v>490</v>
+      </c>
+      <c r="M14" t="n">
+        <v>390</v>
+      </c>
+      <c r="N14" t="n">
+        <v>490</v>
+      </c>
       <c r="O14" t="n">
-        <v>715</v>
+        <v>490</v>
       </c>
       <c r="P14" t="n">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="Q14" t="n">
         <v>56.25</v>
@@ -1365,7 +1409,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1395,7 +1441,9 @@
       <c r="G15" t="n">
         <v>860</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>800</v>
+      </c>
       <c r="I15" t="n">
         <v>920</v>
       </c>
@@ -1406,15 +1454,19 @@
         <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>650</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M15" t="n">
+        <v>430</v>
+      </c>
+      <c r="N15" t="n">
+        <v>525</v>
+      </c>
       <c r="O15" t="n">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="P15" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q15" t="n">
         <v>52.17391304347826</v>
@@ -1427,7 +1479,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1517,28 +1571,34 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>830</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H17" t="n">
+        <v>800</v>
+      </c>
       <c r="I17" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="J17" t="n">
         <v>0.23</v>
       </c>
       <c r="K17" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>555</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+        <v>490</v>
+      </c>
+      <c r="M17" t="n">
+        <v>390</v>
+      </c>
+      <c r="N17" t="n">
+        <v>490</v>
+      </c>
       <c r="O17" t="n">
-        <v>555</v>
+        <v>490</v>
       </c>
       <c r="P17" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q17" t="n">
         <v>37.89473684210526</v>
@@ -1551,7 +1611,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1581,7 +1643,9 @@
       <c r="G18" t="n">
         <v>870</v>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>800</v>
+      </c>
       <c r="I18" t="n">
         <v>920</v>
       </c>
@@ -1594,13 +1658,17 @@
       <c r="L18" t="n">
         <v>490</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>390</v>
+      </c>
+      <c r="N18" t="n">
+        <v>490</v>
+      </c>
       <c r="O18" t="n">
         <v>490</v>
       </c>
       <c r="P18" t="n">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="Q18" t="n">
         <v>40.90909090909091</v>
@@ -1613,7 +1681,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1827,28 +1897,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>850</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H22" t="n">
+        <v>800</v>
+      </c>
       <c r="I22" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J22" t="n">
         <v>0.21</v>
       </c>
       <c r="K22" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L22" t="n">
-        <v>670</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M22" t="n">
+        <v>430</v>
+      </c>
+      <c r="N22" t="n">
+        <v>525</v>
+      </c>
       <c r="O22" t="n">
-        <v>670</v>
+        <v>525</v>
       </c>
       <c r="P22" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q22" t="n">
         <v>36</v>
@@ -1861,7 +1937,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1889,28 +1967,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>850</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H23" t="n">
+        <v>800</v>
+      </c>
       <c r="I23" t="n">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="J23" t="n">
         <v>0.26</v>
       </c>
       <c r="K23" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L23" t="n">
-        <v>645</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M23" t="n">
+        <v>430</v>
+      </c>
+      <c r="N23" t="n">
+        <v>525</v>
+      </c>
       <c r="O23" t="n">
-        <v>645</v>
+        <v>525</v>
       </c>
       <c r="P23" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q23" t="n">
         <v>50</v>
@@ -1923,7 +2007,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1951,11 +2037,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>860</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H24" t="n">
+        <v>800</v>
+      </c>
       <c r="I24" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="J24" t="n">
         <v>0.26</v>
@@ -1964,15 +2052,19 @@
         <v>1500</v>
       </c>
       <c r="L24" t="n">
-        <v>710</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+        <v>490</v>
+      </c>
+      <c r="M24" t="n">
+        <v>390</v>
+      </c>
+      <c r="N24" t="n">
+        <v>490</v>
+      </c>
       <c r="O24" t="n">
-        <v>710</v>
+        <v>490</v>
       </c>
       <c r="P24" t="n">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -1985,7 +2077,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2013,11 +2107,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>860</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H25" t="n">
+        <v>800</v>
+      </c>
       <c r="I25" t="n">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="J25" t="n">
         <v>0.25</v>
@@ -2026,15 +2122,19 @@
         <v>1500</v>
       </c>
       <c r="L25" t="n">
-        <v>640</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+        <v>490</v>
+      </c>
+      <c r="M25" t="n">
+        <v>390</v>
+      </c>
+      <c r="N25" t="n">
+        <v>490</v>
+      </c>
       <c r="O25" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
       <c r="P25" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="Q25" t="n">
         <v>48</v>
@@ -2047,7 +2147,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2137,28 +2239,34 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>860</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H27" t="n">
+        <v>780</v>
+      </c>
       <c r="I27" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="J27" t="n">
         <v>0.22</v>
       </c>
       <c r="K27" t="n">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="L27" t="n">
-        <v>720</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="M27" t="n">
+        <v>660</v>
+      </c>
+      <c r="N27" t="n">
+        <v>700</v>
+      </c>
       <c r="O27" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="P27" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q27" t="n">
         <v>34.28571428571428</v>
@@ -2171,7 +2279,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2201,7 +2311,9 @@
       <c r="G28" t="n">
         <v>860</v>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>800</v>
+      </c>
       <c r="I28" t="n">
         <v>920</v>
       </c>
@@ -2214,8 +2326,12 @@
       <c r="L28" t="n">
         <v>525</v>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>430</v>
+      </c>
+      <c r="N28" t="n">
+        <v>525</v>
+      </c>
       <c r="O28" t="n">
         <v>525</v>
       </c>
@@ -2233,7 +2349,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2263,7 +2381,9 @@
       <c r="G29" t="n">
         <v>860</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>800</v>
+      </c>
       <c r="I29" t="n">
         <v>920</v>
       </c>
@@ -2276,8 +2396,12 @@
       <c r="L29" t="n">
         <v>525</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>430</v>
+      </c>
+      <c r="N29" t="n">
+        <v>525</v>
+      </c>
       <c r="O29" t="n">
         <v>525</v>
       </c>
@@ -2295,7 +2419,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2325,7 +2451,9 @@
       <c r="G30" t="n">
         <v>860</v>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>800</v>
+      </c>
       <c r="I30" t="n">
         <v>920</v>
       </c>
@@ -2336,15 +2464,19 @@
         <v>1500</v>
       </c>
       <c r="L30" t="n">
-        <v>560</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M30" t="n">
+        <v>430</v>
+      </c>
+      <c r="N30" t="n">
+        <v>525</v>
+      </c>
       <c r="O30" t="n">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="P30" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q30" t="n">
         <v>43.37349397590361</v>
@@ -2357,7 +2489,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2387,7 +2521,9 @@
       <c r="G31" t="n">
         <v>860</v>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>800</v>
+      </c>
       <c r="I31" t="n">
         <v>920</v>
       </c>
@@ -2400,8 +2536,12 @@
       <c r="L31" t="n">
         <v>525</v>
       </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>430</v>
+      </c>
+      <c r="N31" t="n">
+        <v>525</v>
+      </c>
       <c r="O31" t="n">
         <v>525</v>
       </c>
@@ -2419,7 +2559,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2449,26 +2591,32 @@
       <c r="G32" t="n">
         <v>860</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>800</v>
+      </c>
       <c r="I32" t="n">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="J32" t="n">
         <v>0.23</v>
       </c>
       <c r="K32" t="n">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="L32" t="n">
-        <v>490</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M32" t="n">
+        <v>430</v>
+      </c>
+      <c r="N32" t="n">
+        <v>525</v>
+      </c>
       <c r="O32" t="n">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="P32" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="Q32" t="n">
         <v>25.71428571428572</v>
@@ -2481,7 +2629,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2881,11 +3031,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>860</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H39" t="n">
+        <v>800</v>
+      </c>
       <c r="I39" t="n">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="J39" t="n">
         <v>0.22</v>
@@ -2894,15 +3046,19 @@
         <v>1500</v>
       </c>
       <c r="L39" t="n">
-        <v>675</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+        <v>520</v>
+      </c>
+      <c r="M39" t="n">
+        <v>450</v>
+      </c>
+      <c r="N39" t="n">
+        <v>520</v>
+      </c>
       <c r="O39" t="n">
-        <v>675</v>
+        <v>520</v>
       </c>
       <c r="P39" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="Q39" t="n">
         <v>36</v>
@@ -2915,7 +3071,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2943,11 +3101,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>870</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H40" t="n">
+        <v>800</v>
+      </c>
       <c r="I40" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="J40" t="n">
         <v>0.24</v>
@@ -2956,15 +3116,19 @@
         <v>1500</v>
       </c>
       <c r="L40" t="n">
-        <v>640</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+        <v>520</v>
+      </c>
+      <c r="M40" t="n">
+        <v>450</v>
+      </c>
+      <c r="N40" t="n">
+        <v>520</v>
+      </c>
       <c r="O40" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="P40" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q40" t="n">
         <v>45</v>
@@ -2977,7 +3141,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3687,11 +3853,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>860</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H52" t="n">
+        <v>800</v>
+      </c>
       <c r="I52" t="n">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="J52" t="n">
         <v>0.2</v>
@@ -3700,15 +3868,19 @@
         <v>1500</v>
       </c>
       <c r="L52" t="n">
-        <v>535</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+        <v>520</v>
+      </c>
+      <c r="M52" t="n">
+        <v>450</v>
+      </c>
+      <c r="N52" t="n">
+        <v>520</v>
+      </c>
       <c r="O52" t="n">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="P52" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q52" t="n">
         <v>40</v>
@@ -3721,7 +3893,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3813,23 +3987,29 @@
       <c r="G54" t="n">
         <v>860</v>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>800</v>
+      </c>
       <c r="I54" t="n">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="J54" t="n">
         <v>0.2</v>
       </c>
       <c r="K54" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L54" t="n">
-        <v>635</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M54" t="n">
+        <v>460</v>
+      </c>
+      <c r="N54" t="n">
+        <v>525</v>
+      </c>
       <c r="O54" t="n">
-        <v>653</v>
+        <v>525</v>
       </c>
       <c r="P54" t="n">
         <v>85</v>
@@ -3845,7 +4025,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3875,7 +4057,9 @@
       <c r="G55" t="n">
         <v>860</v>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>800</v>
+      </c>
       <c r="I55" t="n">
         <v>900</v>
       </c>
@@ -3886,12 +4070,16 @@
         <v>1400</v>
       </c>
       <c r="L55" t="n">
-        <v>520</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M55" t="n">
+        <v>460</v>
+      </c>
+      <c r="N55" t="n">
+        <v>525</v>
+      </c>
       <c r="O55" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="P55" t="n">
         <v>85</v>
@@ -3907,7 +4095,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3937,7 +4127,9 @@
       <c r="G56" t="n">
         <v>860</v>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>800</v>
+      </c>
       <c r="I56" t="n">
         <v>900</v>
       </c>
@@ -3948,12 +4140,16 @@
         <v>1400</v>
       </c>
       <c r="L56" t="n">
-        <v>520</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M56" t="n">
+        <v>460</v>
+      </c>
+      <c r="N56" t="n">
+        <v>525</v>
+      </c>
       <c r="O56" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="P56" t="n">
         <v>85</v>
@@ -3969,7 +4165,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3999,7 +4197,9 @@
       <c r="G57" t="n">
         <v>870</v>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>800</v>
+      </c>
       <c r="I57" t="n">
         <v>920</v>
       </c>
@@ -4010,12 +4210,16 @@
         <v>1400</v>
       </c>
       <c r="L57" t="n">
-        <v>525</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+        <v>530</v>
+      </c>
+      <c r="M57" t="n">
+        <v>450</v>
+      </c>
+      <c r="N57" t="n">
+        <v>530</v>
+      </c>
       <c r="O57" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P57" t="n">
         <v>85</v>
@@ -4031,7 +4235,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4061,7 +4267,9 @@
       <c r="G58" t="n">
         <v>870</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>800</v>
+      </c>
       <c r="I58" t="n">
         <v>890</v>
       </c>
@@ -4074,8 +4282,12 @@
       <c r="L58" t="n">
         <v>655</v>
       </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>560</v>
+      </c>
+      <c r="N58" t="n">
+        <v>655</v>
+      </c>
       <c r="O58" t="n">
         <v>655</v>
       </c>
@@ -4093,7 +4305,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4123,7 +4337,9 @@
       <c r="G59" t="n">
         <v>870</v>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>800</v>
+      </c>
       <c r="I59" t="n">
         <v>920</v>
       </c>
@@ -4136,8 +4352,12 @@
       <c r="L59" t="n">
         <v>660</v>
       </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>560</v>
+      </c>
+      <c r="N59" t="n">
+        <v>660</v>
+      </c>
       <c r="O59" t="n">
         <v>660</v>
       </c>
@@ -4155,7 +4375,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4183,9 +4405,11 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>860</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H60" t="n">
+        <v>800</v>
+      </c>
       <c r="I60" t="n">
         <v>920</v>
       </c>
@@ -4193,18 +4417,22 @@
         <v>0.23</v>
       </c>
       <c r="K60" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L60" t="n">
         <v>660</v>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>560</v>
+      </c>
+      <c r="N60" t="n">
+        <v>660</v>
+      </c>
       <c r="O60" t="n">
         <v>660</v>
       </c>
       <c r="P60" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q60" t="n">
         <v>42.85714285714285</v>
@@ -4217,7 +4445,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4245,25 +4475,31 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>850</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H61" t="n">
+        <v>800</v>
+      </c>
       <c r="I61" t="n">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="J61" t="n">
         <v>0.18</v>
       </c>
       <c r="K61" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L61" t="n">
-        <v>685</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="M61" t="n">
+        <v>600</v>
+      </c>
+      <c r="N61" t="n">
+        <v>700</v>
+      </c>
       <c r="O61" t="n">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="P61" t="n">
         <v>111</v>
@@ -4279,7 +4515,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4307,11 +4545,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>870</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H62" t="n">
+        <v>800</v>
+      </c>
       <c r="I62" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J62" t="n">
         <v>0.23</v>
@@ -4320,15 +4560,19 @@
         <v>1500</v>
       </c>
       <c r="L62" t="n">
-        <v>705</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="M62" t="n">
+        <v>500</v>
+      </c>
+      <c r="N62" t="n">
+        <v>540</v>
+      </c>
       <c r="O62" t="n">
-        <v>705</v>
+        <v>540</v>
       </c>
       <c r="P62" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q62" t="n">
         <v>38.70967741935484</v>
@@ -4341,7 +4585,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4369,9 +4615,11 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>880</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H63" t="n">
+        <v>800</v>
+      </c>
       <c r="I63" t="n">
         <v>910</v>
       </c>
@@ -4382,15 +4630,19 @@
         <v>1500</v>
       </c>
       <c r="L63" t="n">
-        <v>685</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+        <v>520</v>
+      </c>
+      <c r="M63" t="n">
+        <v>500</v>
+      </c>
+      <c r="N63" t="n">
+        <v>520</v>
+      </c>
       <c r="O63" t="n">
-        <v>685</v>
+        <v>520</v>
       </c>
       <c r="P63" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q63" t="n">
         <v>38.70967741935484</v>
@@ -4403,7 +4655,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4431,9 +4685,11 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>860</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H64" t="n">
+        <v>800</v>
+      </c>
       <c r="I64" t="n">
         <v>890</v>
       </c>
@@ -4446,8 +4702,12 @@
       <c r="L64" t="n">
         <v>700</v>
       </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>600</v>
+      </c>
+      <c r="N64" t="n">
+        <v>700</v>
+      </c>
       <c r="O64" t="n">
         <v>700</v>
       </c>
@@ -4465,7 +4725,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4492,19 +4754,33 @@
           <t>SIDERCA</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>880</v>
+      </c>
+      <c r="H65" t="n">
+        <v>800</v>
+      </c>
+      <c r="I65" t="n">
+        <v>920</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L65" t="n">
+        <v>572</v>
+      </c>
+      <c r="M65" t="n">
+        <v>500</v>
+      </c>
+      <c r="N65" t="n">
+        <v>572</v>
+      </c>
       <c r="O65" t="n">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="P65" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Q65" t="n">
         <v>37.11340206185567</v>
@@ -4517,7 +4793,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4545,28 +4823,34 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>880</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H66" t="n">
+        <v>800</v>
+      </c>
       <c r="I66" t="n">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="J66" t="n">
         <v>0.2</v>
       </c>
       <c r="K66" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L66" t="n">
-        <v>670</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>460</v>
+      </c>
+      <c r="N66" t="n">
+        <v>545</v>
+      </c>
       <c r="O66" t="n">
-        <v>670</v>
+        <v>545</v>
       </c>
       <c r="P66" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="Q66" t="n">
         <v>31.30434782608696</v>
@@ -4579,7 +4863,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr"/>
+      <c r="T66" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4669,11 +4955,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>870</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H68" t="n">
+        <v>800</v>
+      </c>
       <c r="I68" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="J68" t="n">
         <v>0.18</v>
@@ -4684,8 +4972,12 @@
       <c r="L68" t="n">
         <v>520</v>
       </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>500</v>
+      </c>
+      <c r="N68" t="n">
+        <v>520</v>
+      </c>
       <c r="O68" t="n">
         <v>520</v>
       </c>
@@ -4703,7 +4995,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr"/>
+      <c r="T68" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4731,11 +5025,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>880</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H69" t="n">
+        <v>800</v>
+      </c>
       <c r="I69" t="n">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="J69" t="n">
         <v>0.2</v>
@@ -4744,15 +5040,19 @@
         <v>1500</v>
       </c>
       <c r="L69" t="n">
-        <v>655</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+        <v>520</v>
+      </c>
+      <c r="M69" t="n">
+        <v>500</v>
+      </c>
+      <c r="N69" t="n">
+        <v>520</v>
+      </c>
       <c r="O69" t="n">
-        <v>655</v>
+        <v>520</v>
       </c>
       <c r="P69" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="Q69" t="n">
         <v>25.71428571428572</v>
@@ -4765,7 +5065,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr"/>
+      <c r="T69" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4793,28 +5095,34 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>880</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
+        <v>890</v>
+      </c>
+      <c r="H70" t="n">
+        <v>800</v>
+      </c>
       <c r="I70" t="n">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="J70" t="n">
         <v>0.2</v>
       </c>
       <c r="K70" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L70" t="n">
-        <v>540</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="M70" t="n">
+        <v>600</v>
+      </c>
+      <c r="N70" t="n">
+        <v>700</v>
+      </c>
       <c r="O70" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="P70" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="Q70" t="n">
         <v>36.73469387755102</v>
@@ -4827,7 +5135,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr"/>
+      <c r="T70" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4979,11 +5289,13 @@
         </is>
       </c>
       <c r="G73" t="n">
+        <v>860</v>
+      </c>
+      <c r="H73" t="n">
+        <v>800</v>
+      </c>
+      <c r="I73" t="n">
         <v>890</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>900</v>
       </c>
       <c r="J73" t="n">
         <v>0.17</v>
@@ -4992,15 +5304,19 @@
         <v>1600</v>
       </c>
       <c r="L73" t="n">
-        <v>700</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="M73" t="n">
+        <v>460</v>
+      </c>
+      <c r="N73" t="n">
+        <v>545</v>
+      </c>
       <c r="O73" t="n">
-        <v>700</v>
+        <v>545</v>
       </c>
       <c r="P73" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Q73" t="n">
         <v>30</v>
@@ -5013,7 +5329,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr"/>
+      <c r="T73" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5167,7 +5485,9 @@
       <c r="G76" t="n">
         <v>860</v>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>800</v>
+      </c>
       <c r="I76" t="n">
         <v>890</v>
       </c>
@@ -5178,15 +5498,19 @@
         <v>1600</v>
       </c>
       <c r="L76" t="n">
-        <v>650</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="M76" t="n">
+        <v>460</v>
+      </c>
+      <c r="N76" t="n">
+        <v>545</v>
+      </c>
       <c r="O76" t="n">
-        <v>650</v>
+        <v>545</v>
       </c>
       <c r="P76" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q76" t="n">
         <v>36.36363636363637</v>
@@ -5199,7 +5523,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5227,28 +5553,34 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>880</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H77" t="n">
+        <v>800</v>
+      </c>
       <c r="I77" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="J77" t="n">
         <v>0.18</v>
       </c>
       <c r="K77" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L77" t="n">
-        <v>655</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+        <v>570</v>
+      </c>
+      <c r="M77" t="n">
+        <v>480</v>
+      </c>
+      <c r="N77" t="n">
+        <v>570</v>
+      </c>
       <c r="O77" t="n">
-        <v>655</v>
+        <v>570</v>
       </c>
       <c r="P77" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q77" t="n">
         <v>34.95145631067961</v>
@@ -5261,7 +5593,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr"/>
+      <c r="T77" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5537,11 +5871,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>860</v>
-      </c>
-      <c r="H82" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H82" t="n">
+        <v>800</v>
+      </c>
       <c r="I82" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J82" t="n">
         <v>0.16</v>
@@ -5550,15 +5886,19 @@
         <v>1600</v>
       </c>
       <c r="L82" t="n">
-        <v>680</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+        <v>530</v>
+      </c>
+      <c r="M82" t="n">
+        <v>460</v>
+      </c>
+      <c r="N82" t="n">
+        <v>530</v>
+      </c>
       <c r="O82" t="n">
-        <v>680</v>
+        <v>530</v>
       </c>
       <c r="P82" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q82" t="n">
         <v>30</v>
@@ -5571,7 +5911,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr"/>
+      <c r="T82" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5661,11 +6003,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>870</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H84" t="n">
+        <v>800</v>
+      </c>
       <c r="I84" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="J84" t="n">
         <v>0.16</v>
@@ -5674,15 +6018,19 @@
         <v>1600</v>
       </c>
       <c r="L84" t="n">
-        <v>690</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+        <v>530</v>
+      </c>
+      <c r="M84" t="n">
+        <v>460</v>
+      </c>
+      <c r="N84" t="n">
+        <v>530</v>
+      </c>
       <c r="O84" t="n">
-        <v>690</v>
+        <v>530</v>
       </c>
       <c r="P84" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q84" t="n">
         <v>31.30434782608696</v>
@@ -5695,7 +6043,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5723,11 +6073,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>870</v>
-      </c>
-      <c r="H85" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H85" t="n">
+        <v>800</v>
+      </c>
       <c r="I85" t="n">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="J85" t="n">
         <v>0.16</v>
@@ -5736,15 +6088,19 @@
         <v>1600</v>
       </c>
       <c r="L85" t="n">
-        <v>680</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+        <v>530</v>
+      </c>
+      <c r="M85" t="n">
+        <v>460</v>
+      </c>
+      <c r="N85" t="n">
+        <v>530</v>
+      </c>
       <c r="O85" t="n">
-        <v>680</v>
+        <v>530</v>
       </c>
       <c r="P85" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q85" t="n">
         <v>31.30434782608696</v>
@@ -5757,7 +6113,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr"/>
+      <c r="T85" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5971,28 +6329,34 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>880</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H89" t="n">
+        <v>800</v>
+      </c>
       <c r="I89" t="n">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="J89" t="n">
         <v>0.14</v>
       </c>
       <c r="K89" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="L89" t="n">
-        <v>635</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+        <v>596</v>
+      </c>
+      <c r="M89" t="n">
+        <v>450</v>
+      </c>
+      <c r="N89" t="n">
+        <v>596</v>
+      </c>
       <c r="O89" t="n">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="P89" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q89" t="n">
         <v>28.8</v>
@@ -6005,7 +6369,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6035,7 +6401,9 @@
       <c r="G90" t="n">
         <v>860</v>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>800</v>
+      </c>
       <c r="I90" t="n">
         <v>890</v>
       </c>
@@ -6046,12 +6414,16 @@
         <v>1600</v>
       </c>
       <c r="L90" t="n">
-        <v>595</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+        <v>596</v>
+      </c>
+      <c r="M90" t="n">
+        <v>450</v>
+      </c>
+      <c r="N90" t="n">
+        <v>596</v>
+      </c>
       <c r="O90" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P90" t="n">
         <v>115</v>
@@ -6067,7 +6439,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6157,9 +6531,11 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>860</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H92" t="n">
+        <v>800</v>
+      </c>
       <c r="I92" t="n">
         <v>920</v>
       </c>
@@ -6170,12 +6546,16 @@
         <v>1600</v>
       </c>
       <c r="L92" t="n">
-        <v>570</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+        <v>572</v>
+      </c>
+      <c r="M92" t="n">
+        <v>500</v>
+      </c>
+      <c r="N92" t="n">
+        <v>572</v>
+      </c>
       <c r="O92" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P92" t="n">
         <v>110</v>
@@ -6191,7 +6571,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6345,25 +6727,31 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>830</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
+        <v>820</v>
+      </c>
+      <c r="H95" t="n">
+        <v>800</v>
+      </c>
       <c r="I95" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J95" t="n">
         <v>0.37</v>
       </c>
       <c r="K95" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="L95" t="n">
         <v>600</v>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>590</v>
+      </c>
+      <c r="N95" t="n">
+        <v>707</v>
+      </c>
       <c r="O95" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P95" t="n">
         <v>60</v>
@@ -6379,7 +6767,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr"/>
+      <c r="T95" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6469,25 +6859,31 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>830</v>
-      </c>
-      <c r="H97" t="inlineStr"/>
+        <v>820</v>
+      </c>
+      <c r="H97" t="n">
+        <v>800</v>
+      </c>
       <c r="I97" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J97" t="n">
         <v>0.37</v>
       </c>
       <c r="K97" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="L97" t="n">
         <v>610</v>
       </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>560</v>
+      </c>
+      <c r="N97" t="n">
+        <v>650</v>
+      </c>
       <c r="O97" t="n">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P97" t="n">
         <v>48</v>
@@ -6503,7 +6899,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr"/>
+      <c r="T97" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6965,28 +7363,34 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>830</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
+        <v>860</v>
+      </c>
+      <c r="H105" t="n">
+        <v>800</v>
+      </c>
       <c r="I105" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J105" t="n">
         <v>0.35</v>
       </c>
       <c r="K105" t="n">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="L105" t="n">
-        <v>525</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+        <v>655</v>
+      </c>
+      <c r="M105" t="n">
+        <v>560</v>
+      </c>
+      <c r="N105" t="n">
+        <v>655</v>
+      </c>
       <c r="O105" t="n">
-        <v>525</v>
+        <v>655</v>
       </c>
       <c r="P105" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q105" t="n">
         <v>70.58823529411765</v>
@@ -6999,7 +7403,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr"/>
+      <c r="T105" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7525,9 +7931,11 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>840</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H114" t="n">
+        <v>800</v>
+      </c>
       <c r="I114" t="n">
         <v>910</v>
       </c>
@@ -7538,15 +7946,19 @@
         <v>1400</v>
       </c>
       <c r="L114" t="n">
-        <v>695</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+        <v>660</v>
+      </c>
+      <c r="M114" t="n">
+        <v>560</v>
+      </c>
+      <c r="N114" t="n">
+        <v>660</v>
+      </c>
       <c r="O114" t="n">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="P114" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q114" t="n">
         <v>70.58823529411765</v>
@@ -7559,7 +7971,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr"/>
+      <c r="T114" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">

--- a/template.xlsx
+++ b/template.xlsx
@@ -4768,19 +4768,19 @@
         <v>1600</v>
       </c>
       <c r="L65" t="n">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="M65" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N65" t="n">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="O65" t="n">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="P65" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Q65" t="n">
         <v>37.11340206185567</v>
@@ -7369,28 +7369,28 @@
         <v>800</v>
       </c>
       <c r="I105" t="n">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="J105" t="n">
         <v>0.35</v>
       </c>
       <c r="K105" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="L105" t="n">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="M105" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="N105" t="n">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="O105" t="n">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="P105" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q105" t="n">
         <v>70.58823529411765</v>
@@ -7931,34 +7931,34 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="H114" t="n">
         <v>800</v>
       </c>
       <c r="I114" t="n">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="J114" t="n">
         <v>0.36</v>
       </c>
       <c r="K114" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L114" t="n">
-        <v>660</v>
+        <v>515</v>
       </c>
       <c r="M114" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="N114" t="n">
-        <v>660</v>
+        <v>515</v>
       </c>
       <c r="O114" t="n">
-        <v>660</v>
+        <v>515</v>
       </c>
       <c r="P114" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q114" t="n">
         <v>70.58823529411765</v>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>0.33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
@@ -8189,11 +8189,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>860</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H118" t="n">
+        <v>800</v>
+      </c>
       <c r="I118" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J118" t="n">
         <v>0.15</v>
@@ -8204,8 +8206,12 @@
       <c r="L118" t="n">
         <v>725</v>
       </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>660</v>
+      </c>
+      <c r="N118" t="n">
+        <v>725</v>
+      </c>
       <c r="O118" t="n">
         <v>725</v>
       </c>
@@ -8223,7 +8229,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T118" t="inlineStr"/>
+      <c r="T118" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8313,28 +8321,34 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>860</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H120" t="n">
+        <v>800</v>
+      </c>
       <c r="I120" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J120" t="n">
         <v>0.2</v>
       </c>
       <c r="K120" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="L120" t="n">
-        <v>680</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+        <v>710</v>
+      </c>
+      <c r="M120" t="n">
+        <v>630</v>
+      </c>
+      <c r="N120" t="n">
+        <v>710</v>
+      </c>
       <c r="O120" t="n">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="P120" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="Q120" t="n">
         <v>42.35294117647059</v>
@@ -8347,7 +8361,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr"/>
+      <c r="T120" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8561,11 +8577,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>860</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H124" t="n">
+        <v>800</v>
+      </c>
       <c r="I124" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J124" t="n">
         <v>0.18</v>
@@ -8576,8 +8594,12 @@
       <c r="L124" t="n">
         <v>675</v>
       </c>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>630</v>
+      </c>
+      <c r="N124" t="n">
+        <v>675</v>
+      </c>
       <c r="O124" t="n">
         <v>675</v>
       </c>
@@ -8595,7 +8617,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr"/>
+      <c r="T124" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8743,11 +8767,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>860</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H127" t="n">
+        <v>800</v>
+      </c>
       <c r="I127" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J127" t="n">
         <v>0.13</v>
@@ -8758,8 +8784,12 @@
       <c r="L127" t="n">
         <v>738</v>
       </c>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>660</v>
+      </c>
+      <c r="N127" t="n">
+        <v>738</v>
+      </c>
       <c r="O127" t="n">
         <v>738</v>
       </c>
@@ -8777,7 +8807,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr"/>
+      <c r="T127" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8805,11 +8837,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>860</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H128" t="n">
+        <v>800</v>
+      </c>
       <c r="I128" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J128" t="n">
         <v>0.13</v>
@@ -8820,8 +8854,12 @@
       <c r="L128" t="n">
         <v>735</v>
       </c>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>660</v>
+      </c>
+      <c r="N128" t="n">
+        <v>735</v>
+      </c>
       <c r="O128" t="n">
         <v>735</v>
       </c>
@@ -8839,7 +8877,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr"/>
+      <c r="T128" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9053,11 +9093,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>860</v>
-      </c>
-      <c r="H132" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H132" t="n">
+        <v>800</v>
+      </c>
       <c r="I132" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J132" t="n">
         <v>0.17</v>
@@ -9066,15 +9108,19 @@
         <v>1650</v>
       </c>
       <c r="L132" t="n">
-        <v>680</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+        <v>530</v>
+      </c>
+      <c r="M132" t="n">
+        <v>430</v>
+      </c>
+      <c r="N132" t="n">
+        <v>530</v>
+      </c>
       <c r="O132" t="n">
-        <v>680</v>
+        <v>530</v>
       </c>
       <c r="P132" t="n">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="Q132" t="n">
         <v>36.36363636363637</v>
@@ -9087,7 +9133,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr"/>
+      <c r="T132" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9177,11 +9225,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>860</v>
-      </c>
-      <c r="H134" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H134" t="n">
+        <v>800</v>
+      </c>
       <c r="I134" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J134" t="n">
         <v>0.15</v>
@@ -9190,15 +9240,19 @@
         <v>1650</v>
       </c>
       <c r="L134" t="n">
-        <v>630</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M134" t="n">
+        <v>460</v>
+      </c>
+      <c r="N134" t="n">
+        <v>525</v>
+      </c>
       <c r="O134" t="n">
-        <v>630</v>
+        <v>525</v>
       </c>
       <c r="P134" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q134" t="n">
         <v>32.72727272727273</v>
@@ -9211,7 +9265,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T134" t="inlineStr"/>
+      <c r="T134" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9675,9 +9731,11 @@
       <c r="G142" t="n">
         <v>860</v>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>800</v>
+      </c>
       <c r="I142" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J142" t="n">
         <v>0.16</v>
@@ -9688,8 +9746,12 @@
       <c r="L142" t="n">
         <v>670</v>
       </c>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>580</v>
+      </c>
+      <c r="N142" t="n">
+        <v>670</v>
+      </c>
       <c r="O142" t="n">
         <v>670</v>
       </c>
@@ -9707,7 +9769,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9797,11 +9861,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>860</v>
-      </c>
-      <c r="H144" t="inlineStr"/>
+        <v>890</v>
+      </c>
+      <c r="H144" t="n">
+        <v>800</v>
+      </c>
       <c r="I144" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J144" t="n">
         <v>0.18</v>
@@ -9810,10 +9876,14 @@
         <v>1420</v>
       </c>
       <c r="L144" t="n">
+        <v>670</v>
+      </c>
+      <c r="M144" t="n">
+        <v>555</v>
+      </c>
+      <c r="N144" t="n">
         <v>680</v>
       </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
         <v>680</v>
       </c>
@@ -9831,7 +9901,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr"/>
+      <c r="T144" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9859,11 +9931,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>860</v>
-      </c>
-      <c r="H145" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H145" t="n">
+        <v>800</v>
+      </c>
       <c r="I145" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J145" t="n">
         <v>0.12</v>
@@ -9874,8 +9948,12 @@
       <c r="L145" t="n">
         <v>675</v>
       </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>580</v>
+      </c>
+      <c r="N145" t="n">
+        <v>675</v>
+      </c>
       <c r="O145" t="n">
         <v>675</v>
       </c>
@@ -9893,7 +9971,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr"/>
+      <c r="T145" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9921,11 +10001,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>860</v>
-      </c>
-      <c r="H146" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H146" t="n">
+        <v>800</v>
+      </c>
       <c r="I146" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J146" t="n">
         <v>0.12</v>
@@ -9936,8 +10018,12 @@
       <c r="L146" t="n">
         <v>710</v>
       </c>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>660</v>
+      </c>
+      <c r="N146" t="n">
+        <v>710</v>
+      </c>
       <c r="O146" t="n">
         <v>710</v>
       </c>
@@ -9955,7 +10041,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T146" t="inlineStr"/>
+      <c r="T146" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9983,11 +10071,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>860</v>
-      </c>
-      <c r="H147" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H147" t="n">
+        <v>800</v>
+      </c>
       <c r="I147" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J147" t="n">
         <v>0.1</v>
@@ -9998,8 +10088,12 @@
       <c r="L147" t="n">
         <v>505</v>
       </c>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>425</v>
+      </c>
+      <c r="N147" t="n">
+        <v>505</v>
+      </c>
       <c r="O147" t="n">
         <v>505</v>
       </c>
@@ -10017,7 +10111,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr"/>
+      <c r="T147" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10045,11 +10141,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>860</v>
-      </c>
-      <c r="H148" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H148" t="n">
+        <v>800</v>
+      </c>
       <c r="I148" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J148" t="n">
         <v>0.12</v>
@@ -10060,8 +10158,12 @@
       <c r="L148" t="n">
         <v>550</v>
       </c>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>480</v>
+      </c>
+      <c r="N148" t="n">
+        <v>550</v>
+      </c>
       <c r="O148" t="n">
         <v>550</v>
       </c>
@@ -10079,7 +10181,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10169,11 +10273,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>860</v>
-      </c>
-      <c r="H150" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H150" t="n">
+        <v>800</v>
+      </c>
       <c r="I150" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J150" t="n">
         <v>0.14</v>
@@ -10184,8 +10290,12 @@
       <c r="L150" t="n">
         <v>560</v>
       </c>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>475</v>
+      </c>
+      <c r="N150" t="n">
+        <v>560</v>
+      </c>
       <c r="O150" t="n">
         <v>560</v>
       </c>
@@ -10203,7 +10313,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T150" t="inlineStr"/>
+      <c r="T150" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10231,11 +10343,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>860</v>
-      </c>
-      <c r="H151" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H151" t="n">
+        <v>800</v>
+      </c>
       <c r="I151" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J151" t="n">
         <v>0.12</v>
@@ -10246,8 +10360,12 @@
       <c r="L151" t="n">
         <v>660</v>
       </c>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>560</v>
+      </c>
+      <c r="N151" t="n">
+        <v>660</v>
+      </c>
       <c r="O151" t="n">
         <v>660</v>
       </c>
@@ -10265,7 +10383,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T151" t="inlineStr"/>
+      <c r="T151" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10355,28 +10475,34 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>860</v>
-      </c>
-      <c r="H153" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H153" t="n">
+        <v>800</v>
+      </c>
       <c r="I153" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J153" t="n">
         <v>0.12</v>
       </c>
       <c r="K153" t="n">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="L153" t="n">
-        <v>515</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+        <v>695</v>
+      </c>
+      <c r="M153" t="n">
+        <v>600</v>
+      </c>
+      <c r="N153" t="n">
+        <v>695</v>
+      </c>
       <c r="O153" t="n">
-        <v>515</v>
+        <v>695</v>
       </c>
       <c r="P153" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Q153" t="n">
         <v>22.5</v>
@@ -10389,7 +10515,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T153" t="inlineStr"/>
+      <c r="T153" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10541,11 +10669,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>860</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H156" t="n">
+        <v>800</v>
+      </c>
       <c r="I156" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J156" t="n">
         <v>0.16</v>
@@ -10554,15 +10684,19 @@
         <v>1750</v>
       </c>
       <c r="L156" t="n">
-        <v>628</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+        <v>672</v>
+      </c>
+      <c r="M156" t="n">
+        <v>560</v>
+      </c>
+      <c r="N156" t="n">
+        <v>672</v>
+      </c>
       <c r="O156" t="n">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="P156" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q156" t="n">
         <v>28.57142857142857</v>
@@ -10575,7 +10709,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T156" t="inlineStr"/>
+      <c r="T156" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10665,11 +10801,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>860</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H158" t="n">
+        <v>800</v>
+      </c>
       <c r="I158" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J158" t="n">
         <v>0.12</v>
@@ -10680,8 +10818,12 @@
       <c r="L158" t="n">
         <v>737</v>
       </c>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>660</v>
+      </c>
+      <c r="N158" t="n">
+        <v>737</v>
+      </c>
       <c r="O158" t="n">
         <v>737</v>
       </c>
@@ -10699,7 +10841,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr"/>
+      <c r="T158" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10727,28 +10871,34 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>860</v>
-      </c>
-      <c r="H159" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H159" t="n">
+        <v>800</v>
+      </c>
       <c r="I159" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J159" t="n">
         <v>0.1</v>
       </c>
       <c r="K159" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L159" t="n">
-        <v>735</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+        <v>621</v>
+      </c>
+      <c r="M159" t="n">
+        <v>560</v>
+      </c>
+      <c r="N159" t="n">
+        <v>621</v>
+      </c>
       <c r="O159" t="n">
-        <v>735</v>
+        <v>621</v>
       </c>
       <c r="P159" t="n">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="Q159" t="n">
         <v>21.17647058823529</v>
@@ -10761,7 +10911,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T159" t="inlineStr"/>
+      <c r="T159" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10913,25 +11065,31 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>860</v>
-      </c>
-      <c r="H162" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H162" t="n">
+        <v>800</v>
+      </c>
       <c r="I162" t="n">
-        <v>910</v>
+        <v>935</v>
       </c>
       <c r="J162" t="n">
         <v>0.1</v>
       </c>
       <c r="K162" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L162" t="n">
-        <v>665</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
+        <v>670</v>
+      </c>
+      <c r="M162" t="n">
+        <v>565</v>
+      </c>
+      <c r="N162" t="n">
+        <v>670</v>
+      </c>
       <c r="O162" t="n">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="P162" t="n">
         <v>135</v>
@@ -10947,7 +11105,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T162" t="inlineStr"/>
+      <c r="T162" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11037,11 +11197,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>860</v>
-      </c>
-      <c r="H164" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H164" t="n">
+        <v>800</v>
+      </c>
       <c r="I164" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J164" t="n">
         <v>0.1</v>
@@ -11050,15 +11212,19 @@
         <v>1700</v>
       </c>
       <c r="L164" t="n">
-        <v>685</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
+        <v>555</v>
+      </c>
+      <c r="M164" t="n">
+        <v>480</v>
+      </c>
+      <c r="N164" t="n">
+        <v>555</v>
+      </c>
       <c r="O164" t="n">
-        <v>685</v>
+        <v>555</v>
       </c>
       <c r="P164" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q164" t="n">
         <v>21.81818181818182</v>
@@ -11071,7 +11237,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T164" t="inlineStr"/>
+      <c r="T164" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11409,11 +11577,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>860</v>
-      </c>
-      <c r="H170" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H170" t="n">
+        <v>800</v>
+      </c>
       <c r="I170" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J170" t="n">
         <v>0.11</v>
@@ -11422,12 +11592,16 @@
         <v>1800</v>
       </c>
       <c r="L170" t="n">
-        <v>618</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
+        <v>621</v>
+      </c>
+      <c r="M170" t="n">
+        <v>540</v>
+      </c>
+      <c r="N170" t="n">
+        <v>621</v>
+      </c>
       <c r="O170" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="P170" t="n">
         <v>142</v>
@@ -11443,7 +11617,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T170" t="inlineStr"/>
+      <c r="T170" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11533,11 +11709,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>860</v>
-      </c>
-      <c r="H172" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H172" t="n">
+        <v>800</v>
+      </c>
       <c r="I172" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J172" t="n">
         <v>0.1</v>
@@ -11548,8 +11726,12 @@
       <c r="L172" t="n">
         <v>680</v>
       </c>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>610</v>
+      </c>
+      <c r="N172" t="n">
+        <v>680</v>
+      </c>
       <c r="O172" t="n">
         <v>680</v>
       </c>
@@ -11567,7 +11749,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T172" t="inlineStr"/>
+      <c r="T172" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11595,11 +11779,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>860</v>
-      </c>
-      <c r="H173" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H173" t="n">
+        <v>800</v>
+      </c>
       <c r="I173" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J173" t="n">
         <v>0.18</v>
@@ -11610,8 +11796,12 @@
       <c r="L173" t="n">
         <v>557</v>
       </c>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>470</v>
+      </c>
+      <c r="N173" t="n">
+        <v>557</v>
+      </c>
       <c r="O173" t="n">
         <v>557</v>
       </c>
@@ -11629,7 +11819,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr"/>
+      <c r="T173" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11783,9 +11975,11 @@
       <c r="G176" t="n">
         <v>860</v>
       </c>
-      <c r="H176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>800</v>
+      </c>
       <c r="I176" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J176" t="n">
         <v>0.1</v>
@@ -11796,8 +11990,12 @@
       <c r="L176" t="n">
         <v>523</v>
       </c>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>440</v>
+      </c>
+      <c r="N176" t="n">
+        <v>523</v>
+      </c>
       <c r="O176" t="n">
         <v>523</v>
       </c>
@@ -11815,7 +12013,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T176" t="inlineStr"/>
+      <c r="T176" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11969,9 +12169,11 @@
       <c r="G179" t="n">
         <v>860</v>
       </c>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>800</v>
+      </c>
       <c r="I179" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J179" t="n">
         <v>0.1</v>
@@ -11982,8 +12184,12 @@
       <c r="L179" t="n">
         <v>563</v>
       </c>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>480</v>
+      </c>
+      <c r="N179" t="n">
+        <v>563</v>
+      </c>
       <c r="O179" t="n">
         <v>563</v>
       </c>
@@ -12001,7 +12207,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T179" t="inlineStr"/>
+      <c r="T179" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12029,11 +12237,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>860</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H180" t="n">
+        <v>800</v>
+      </c>
       <c r="I180" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J180" t="n">
         <v>0.15</v>
@@ -12044,8 +12254,12 @@
       <c r="L180" t="n">
         <v>563</v>
       </c>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>480</v>
+      </c>
+      <c r="N180" t="n">
+        <v>563</v>
+      </c>
       <c r="O180" t="n">
         <v>563</v>
       </c>
@@ -12063,7 +12277,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T180" t="inlineStr"/>
+      <c r="T180" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12403,9 +12619,11 @@
       <c r="G186" t="n">
         <v>860</v>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>800</v>
+      </c>
       <c r="I186" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J186" t="n">
         <v>0.15</v>
@@ -12414,15 +12632,19 @@
         <v>1700</v>
       </c>
       <c r="L186" t="n">
-        <v>670</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M186" t="n">
+        <v>425</v>
+      </c>
+      <c r="N186" t="n">
+        <v>525</v>
+      </c>
       <c r="O186" t="n">
-        <v>670</v>
+        <v>525</v>
       </c>
       <c r="P186" t="n">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="Q186" t="n">
         <v>31.03448275862069</v>
@@ -12435,7 +12657,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12587,11 +12811,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>860</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H189" t="n">
+        <v>800</v>
+      </c>
       <c r="I189" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J189" t="n">
         <v>0.1</v>
@@ -12602,8 +12828,12 @@
       <c r="L189" t="n">
         <v>715</v>
       </c>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>650</v>
+      </c>
+      <c r="N189" t="n">
+        <v>715</v>
+      </c>
       <c r="O189" t="n">
         <v>715</v>
       </c>
@@ -12621,7 +12851,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12713,9 +12945,11 @@
       <c r="G191" t="n">
         <v>860</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>800</v>
+      </c>
       <c r="I191" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J191" t="n">
         <v>0.1</v>
@@ -12726,8 +12960,12 @@
       <c r="L191" t="n">
         <v>535</v>
       </c>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>435</v>
+      </c>
+      <c r="N191" t="n">
+        <v>535</v>
+      </c>
       <c r="O191" t="n">
         <v>535</v>
       </c>
@@ -12745,7 +12983,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12835,11 +13075,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>860</v>
-      </c>
-      <c r="H193" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H193" t="n">
+        <v>800</v>
+      </c>
       <c r="I193" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J193" t="n">
         <v>0.1</v>
@@ -12850,8 +13092,12 @@
       <c r="L193" t="n">
         <v>535</v>
       </c>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>425</v>
+      </c>
+      <c r="N193" t="n">
+        <v>535</v>
+      </c>
       <c r="O193" t="n">
         <v>535</v>
       </c>
@@ -12869,7 +13115,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12959,11 +13207,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>860</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H195" t="n">
+        <v>800</v>
+      </c>
       <c r="I195" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J195" t="n">
         <v>0.1</v>
@@ -12972,15 +13222,19 @@
         <v>1700</v>
       </c>
       <c r="L195" t="n">
-        <v>518</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+        <v>567</v>
+      </c>
+      <c r="M195" t="n">
+        <v>465</v>
+      </c>
+      <c r="N195" t="n">
+        <v>567</v>
+      </c>
       <c r="O195" t="n">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="P195" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q195" t="n">
         <v>20.57142857142857</v>
@@ -12993,7 +13247,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T195" t="inlineStr"/>
+      <c r="T195" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13147,9 +13403,11 @@
       <c r="G198" t="n">
         <v>860</v>
       </c>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>800</v>
+      </c>
       <c r="I198" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J198" t="n">
         <v>0.1</v>
@@ -13158,12 +13416,16 @@
         <v>1700</v>
       </c>
       <c r="L198" t="n">
-        <v>532</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
+        <v>562</v>
+      </c>
+      <c r="M198" t="n">
+        <v>480</v>
+      </c>
+      <c r="N198" t="n">
+        <v>562</v>
+      </c>
       <c r="O198" t="n">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="P198" t="n">
         <v>150</v>
@@ -13179,7 +13441,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13331,11 +13595,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>860</v>
-      </c>
-      <c r="H201" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H201" t="n">
+        <v>800</v>
+      </c>
       <c r="I201" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J201" t="n">
         <v>0.1</v>
@@ -13346,8 +13612,12 @@
       <c r="L201" t="n">
         <v>520</v>
       </c>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>420</v>
+      </c>
+      <c r="N201" t="n">
+        <v>520</v>
+      </c>
       <c r="O201" t="n">
         <v>520</v>
       </c>
@@ -13365,7 +13635,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T201" t="inlineStr"/>
+      <c r="T201" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13393,25 +13665,31 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>860</v>
-      </c>
-      <c r="H202" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H202" t="n">
+        <v>800</v>
+      </c>
       <c r="I202" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J202" t="n">
         <v>0.11</v>
       </c>
       <c r="K202" t="n">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="L202" t="n">
-        <v>618</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
+        <v>627</v>
+      </c>
+      <c r="M202" t="n">
+        <v>530</v>
+      </c>
+      <c r="N202" t="n">
+        <v>627</v>
+      </c>
       <c r="O202" t="n">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="P202" t="n">
         <v>150</v>
@@ -13427,7 +13705,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T202" t="inlineStr"/>
+      <c r="T202" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13517,11 +13797,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>860</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H204" t="n">
+        <v>800</v>
+      </c>
       <c r="I204" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J204" t="n">
         <v>0.11</v>
@@ -13532,8 +13814,12 @@
       <c r="L204" t="n">
         <v>627</v>
       </c>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>490</v>
+      </c>
+      <c r="N204" t="n">
+        <v>627</v>
+      </c>
       <c r="O204" t="n">
         <v>627</v>
       </c>
@@ -13551,7 +13837,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T204" t="inlineStr"/>
+      <c r="T204" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13827,11 +14115,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>860</v>
-      </c>
-      <c r="H209" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H209" t="n">
+        <v>800</v>
+      </c>
       <c r="I209" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J209" t="n">
         <v>0.11</v>
@@ -13842,8 +14132,12 @@
       <c r="L209" t="n">
         <v>560</v>
       </c>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>480</v>
+      </c>
+      <c r="N209" t="n">
+        <v>560</v>
+      </c>
       <c r="O209" t="n">
         <v>560</v>
       </c>
@@ -13861,7 +14155,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T209" t="inlineStr"/>
+      <c r="T209" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13889,9 +14185,11 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>860</v>
-      </c>
-      <c r="H210" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H210" t="n">
+        <v>800</v>
+      </c>
       <c r="I210" t="n">
         <v>910</v>
       </c>
@@ -13904,8 +14202,12 @@
       <c r="L210" t="n">
         <v>555</v>
       </c>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>475</v>
+      </c>
+      <c r="N210" t="n">
+        <v>555</v>
+      </c>
       <c r="O210" t="n">
         <v>555</v>
       </c>
@@ -13923,7 +14225,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T210" t="inlineStr"/>
+      <c r="T210" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13951,11 +14255,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>860</v>
-      </c>
-      <c r="H211" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H211" t="n">
+        <v>800</v>
+      </c>
       <c r="I211" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J211" t="n">
         <v>1.1</v>
@@ -13966,8 +14272,12 @@
       <c r="L211" t="n">
         <v>700</v>
       </c>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>640</v>
+      </c>
+      <c r="N211" t="n">
+        <v>700</v>
+      </c>
       <c r="O211" t="n">
         <v>700</v>
       </c>
@@ -13985,7 +14295,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T211" t="inlineStr"/>
+      <c r="T211" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14013,11 +14325,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>860</v>
-      </c>
-      <c r="H212" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H212" t="n">
+        <v>800</v>
+      </c>
       <c r="I212" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J212" t="n">
         <v>0.12</v>
@@ -14028,8 +14342,12 @@
       <c r="L212" t="n">
         <v>735</v>
       </c>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>650</v>
+      </c>
+      <c r="N212" t="n">
+        <v>735</v>
+      </c>
       <c r="O212" t="n">
         <v>735</v>
       </c>
@@ -14047,7 +14365,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T212" t="inlineStr"/>
+      <c r="T212" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14075,11 +14395,13 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>860</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H213" t="n">
+        <v>800</v>
+      </c>
       <c r="I213" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J213" t="n">
         <v>0.11</v>
@@ -14090,8 +14412,12 @@
       <c r="L213" t="n">
         <v>680</v>
       </c>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>600</v>
+      </c>
+      <c r="N213" t="n">
+        <v>680</v>
+      </c>
       <c r="O213" t="n">
         <v>680</v>
       </c>
@@ -14109,7 +14435,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T213" t="inlineStr"/>
+      <c r="T213" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14199,11 +14527,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>860</v>
-      </c>
-      <c r="H215" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H215" t="n">
+        <v>800</v>
+      </c>
       <c r="I215" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J215" t="n">
         <v>0.1</v>
@@ -14214,8 +14544,12 @@
       <c r="L215" t="n">
         <v>515</v>
       </c>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>425</v>
+      </c>
+      <c r="N215" t="n">
+        <v>515</v>
+      </c>
       <c r="O215" t="n">
         <v>515</v>
       </c>
@@ -14233,7 +14567,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T215" t="inlineStr"/>
+      <c r="T215" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14323,11 +14659,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>860</v>
-      </c>
-      <c r="H217" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H217" t="n">
+        <v>800</v>
+      </c>
       <c r="I217" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J217" t="n">
         <v>0.11</v>
@@ -14336,15 +14674,19 @@
         <v>1750</v>
       </c>
       <c r="L217" t="n">
-        <v>660</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
+        <v>622</v>
+      </c>
+      <c r="M217" t="n">
+        <v>560</v>
+      </c>
+      <c r="N217" t="n">
+        <v>622</v>
+      </c>
       <c r="O217" t="n">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="P217" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="Q217" t="n">
         <v>21.05263157894737</v>
@@ -14357,7 +14699,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T217" t="inlineStr"/>
+      <c r="T217" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14509,11 +14853,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>860</v>
-      </c>
-      <c r="H220" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H220" t="n">
+        <v>800</v>
+      </c>
       <c r="I220" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="J220" t="n">
         <v>0.1</v>
@@ -14522,12 +14868,16 @@
         <v>1600</v>
       </c>
       <c r="L220" t="n">
-        <v>720</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
+        <v>622</v>
+      </c>
+      <c r="M220" t="n">
+        <v>540</v>
+      </c>
+      <c r="N220" t="n">
+        <v>622</v>
+      </c>
       <c r="O220" t="n">
-        <v>720</v>
+        <v>622</v>
       </c>
       <c r="P220" t="n">
         <v>150</v>
@@ -14543,7 +14893,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T220" t="inlineStr"/>
+      <c r="T220" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14633,11 +14985,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>860</v>
-      </c>
-      <c r="H222" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H222" t="n">
+        <v>800</v>
+      </c>
       <c r="I222" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J222" t="n">
         <v>0.1</v>
@@ -14648,8 +15002,12 @@
       <c r="L222" t="n">
         <v>732</v>
       </c>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>650</v>
+      </c>
+      <c r="N222" t="n">
+        <v>732</v>
+      </c>
       <c r="O222" t="n">
         <v>732</v>
       </c>
@@ -14667,7 +15025,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T222" t="inlineStr"/>
+      <c r="T222" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14757,28 +15117,34 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>860</v>
-      </c>
-      <c r="H224" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H224" t="n">
+        <v>800</v>
+      </c>
       <c r="I224" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J224" t="n">
         <v>0.1</v>
       </c>
       <c r="K224" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="L224" t="n">
-        <v>675</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr"/>
+        <v>570</v>
+      </c>
+      <c r="M224" t="n">
+        <v>460</v>
+      </c>
+      <c r="N224" t="n">
+        <v>570</v>
+      </c>
       <c r="O224" t="n">
-        <v>675</v>
+        <v>570</v>
       </c>
       <c r="P224" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q224" t="n">
         <v>24</v>
@@ -14791,7 +15157,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T224" t="inlineStr"/>
+      <c r="T224" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14819,11 +15187,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>860</v>
-      </c>
-      <c r="H225" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H225" t="n">
+        <v>800</v>
+      </c>
       <c r="I225" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J225" t="n">
         <v>0.1</v>
@@ -14832,15 +15202,19 @@
         <v>1800</v>
       </c>
       <c r="L225" t="n">
-        <v>690</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr"/>
+        <v>560</v>
+      </c>
+      <c r="M225" t="n">
+        <v>480</v>
+      </c>
+      <c r="N225" t="n">
+        <v>560</v>
+      </c>
       <c r="O225" t="n">
-        <v>690</v>
+        <v>560</v>
       </c>
       <c r="P225" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q225" t="n">
         <v>24</v>
@@ -14853,7 +15227,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T225" t="inlineStr"/>
+      <c r="T225" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15377,11 +15753,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>860</v>
-      </c>
-      <c r="H234" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H234" t="n">
+        <v>800</v>
+      </c>
       <c r="I234" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J234" t="n">
         <v>0.1</v>
@@ -15390,12 +15768,16 @@
         <v>1800</v>
       </c>
       <c r="L234" t="n">
-        <v>730</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
+        <v>720</v>
+      </c>
+      <c r="M234" t="n">
+        <v>620</v>
+      </c>
+      <c r="N234" t="n">
+        <v>720</v>
+      </c>
       <c r="O234" t="n">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="P234" t="n">
         <v>180</v>
@@ -15411,7 +15793,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T234" t="inlineStr"/>
+      <c r="T234" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15501,11 +15885,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>860</v>
-      </c>
-      <c r="H236" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H236" t="n">
+        <v>800</v>
+      </c>
       <c r="I236" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J236" t="n">
         <v>0.1</v>
@@ -15514,12 +15900,16 @@
         <v>1800</v>
       </c>
       <c r="L236" t="n">
-        <v>542</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
+        <v>512</v>
+      </c>
+      <c r="M236" t="n">
+        <v>470</v>
+      </c>
+      <c r="N236" t="n">
+        <v>512</v>
+      </c>
       <c r="O236" t="n">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="P236" t="n">
         <v>210</v>
@@ -15535,7 +15925,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T236" t="inlineStr"/>
+      <c r="T236" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -15687,11 +16079,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>860</v>
-      </c>
-      <c r="H239" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H239" t="n">
+        <v>800</v>
+      </c>
       <c r="I239" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J239" t="n">
         <v>0.1</v>
@@ -15702,8 +16096,12 @@
       <c r="L239" t="n">
         <v>620</v>
       </c>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>560</v>
+      </c>
+      <c r="N239" t="n">
+        <v>620</v>
+      </c>
       <c r="O239" t="n">
         <v>620</v>
       </c>
@@ -15721,7 +16119,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T239" t="inlineStr"/>
+      <c r="T239" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -15935,11 +16335,13 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>860</v>
-      </c>
-      <c r="H243" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H243" t="n">
+        <v>800</v>
+      </c>
       <c r="I243" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J243" t="n">
         <v>0.1</v>
@@ -15948,15 +16350,19 @@
         <v>1800</v>
       </c>
       <c r="L243" t="n">
-        <v>733</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="M243" t="n">
+        <v>560</v>
+      </c>
+      <c r="N243" t="n">
+        <v>620</v>
+      </c>
       <c r="O243" t="n">
-        <v>733</v>
+        <v>620</v>
       </c>
       <c r="P243" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q243" t="n">
         <v>20</v>
@@ -15969,7 +16375,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T243" t="inlineStr"/>
+      <c r="T243" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16123,9 +16531,11 @@
       <c r="G246" t="n">
         <v>860</v>
       </c>
-      <c r="H246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>800</v>
+      </c>
       <c r="I246" t="n">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="J246" t="n">
         <v>0.1</v>
@@ -16136,8 +16546,12 @@
       <c r="L246" t="n">
         <v>520</v>
       </c>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>450</v>
+      </c>
+      <c r="N246" t="n">
+        <v>520</v>
+      </c>
       <c r="O246" t="n">
         <v>520</v>
       </c>
@@ -16155,7 +16569,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T246" t="inlineStr"/>
+      <c r="T246" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16555,11 +16971,13 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>860</v>
-      </c>
-      <c r="H253" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H253" t="n">
+        <v>800</v>
+      </c>
       <c r="I253" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J253" t="n">
         <v>0.1</v>
@@ -16570,8 +16988,12 @@
       <c r="L253" t="n">
         <v>680</v>
       </c>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>600</v>
+      </c>
+      <c r="N253" t="n">
+        <v>680</v>
+      </c>
       <c r="O253" t="n">
         <v>680</v>
       </c>
@@ -16589,7 +17011,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T253" t="inlineStr"/>
+      <c r="T253" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -16679,9 +17103,11 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>860</v>
-      </c>
-      <c r="H255" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H255" t="n">
+        <v>800</v>
+      </c>
       <c r="I255" t="n">
         <v>910</v>
       </c>
@@ -16694,8 +17120,12 @@
       <c r="L255" t="n">
         <v>640</v>
       </c>
-      <c r="M255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>560</v>
+      </c>
+      <c r="N255" t="n">
+        <v>640</v>
+      </c>
       <c r="O255" t="n">
         <v>640</v>
       </c>
@@ -16713,7 +17143,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T255" t="inlineStr"/>
+      <c r="T255" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -16741,11 +17173,13 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>860</v>
-      </c>
-      <c r="H256" t="inlineStr"/>
+        <v>890</v>
+      </c>
+      <c r="H256" t="n">
+        <v>800</v>
+      </c>
       <c r="I256" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J256" t="n">
         <v>0.1</v>
@@ -16754,12 +17188,16 @@
         <v>1850</v>
       </c>
       <c r="L256" t="n">
-        <v>685</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="M256" t="n">
+        <v>610</v>
+      </c>
+      <c r="N256" t="n">
+        <v>682</v>
+      </c>
       <c r="O256" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="P256" t="n">
         <v>190</v>
@@ -16775,7 +17213,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T256" t="inlineStr"/>
+      <c r="T256" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -16865,11 +17305,13 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>860</v>
-      </c>
-      <c r="H258" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H258" t="n">
+        <v>800</v>
+      </c>
       <c r="I258" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J258" t="n">
         <v>0.1</v>
@@ -16880,8 +17322,12 @@
       <c r="L258" t="n">
         <v>560</v>
       </c>
-      <c r="M258" t="inlineStr"/>
-      <c r="N258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>480</v>
+      </c>
+      <c r="N258" t="n">
+        <v>560</v>
+      </c>
       <c r="O258" t="n">
         <v>560</v>
       </c>
@@ -16899,7 +17345,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T258" t="inlineStr"/>
+      <c r="T258" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -16927,28 +17375,34 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>860</v>
-      </c>
-      <c r="H259" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H259" t="n">
+        <v>800</v>
+      </c>
       <c r="I259" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="J259" t="n">
         <v>0.1</v>
       </c>
       <c r="K259" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="L259" t="n">
-        <v>618</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-      <c r="N259" t="inlineStr"/>
+        <v>736</v>
+      </c>
+      <c r="M259" t="n">
+        <v>650</v>
+      </c>
+      <c r="N259" t="n">
+        <v>736</v>
+      </c>
       <c r="O259" t="n">
-        <v>618</v>
+        <v>736</v>
       </c>
       <c r="P259" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="Q259" t="n">
         <v>24</v>
@@ -16961,7 +17415,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T259" t="inlineStr"/>
+      <c r="T259" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17113,11 +17569,13 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>860</v>
-      </c>
-      <c r="H262" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H262" t="n">
+        <v>800</v>
+      </c>
       <c r="I262" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J262" t="n">
         <v>0.1</v>
@@ -17126,12 +17584,16 @@
         <v>1650</v>
       </c>
       <c r="L262" t="n">
-        <v>555</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr"/>
+        <v>560</v>
+      </c>
+      <c r="M262" t="n">
+        <v>460</v>
+      </c>
+      <c r="N262" t="n">
+        <v>560</v>
+      </c>
       <c r="O262" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="P262" t="n">
         <v>160</v>
@@ -17147,7 +17609,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T262" t="inlineStr"/>
+      <c r="T262" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17237,11 +17701,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>860</v>
-      </c>
-      <c r="H264" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H264" t="n">
+        <v>780</v>
+      </c>
       <c r="I264" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J264" t="n">
         <v>0.1</v>
@@ -17252,8 +17718,12 @@
       <c r="L264" t="n">
         <v>615</v>
       </c>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>520</v>
+      </c>
+      <c r="N264" t="n">
+        <v>615</v>
+      </c>
       <c r="O264" t="n">
         <v>615</v>
       </c>
@@ -17271,7 +17741,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T264" t="inlineStr"/>
+      <c r="T264" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -17301,9 +17773,11 @@
       <c r="G265" t="n">
         <v>860</v>
       </c>
-      <c r="H265" t="inlineStr"/>
+      <c r="H265" t="n">
+        <v>800</v>
+      </c>
       <c r="I265" t="n">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="J265" t="n">
         <v>0.1</v>
@@ -17314,8 +17788,12 @@
       <c r="L265" t="n">
         <v>732</v>
       </c>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>650</v>
+      </c>
+      <c r="N265" t="n">
+        <v>732</v>
+      </c>
       <c r="O265" t="n">
         <v>732</v>
       </c>
@@ -17333,7 +17811,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T265" t="inlineStr"/>
+      <c r="T265" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -17361,11 +17841,13 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>860</v>
-      </c>
-      <c r="H266" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H266" t="n">
+        <v>800</v>
+      </c>
       <c r="I266" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J266" t="n">
         <v>0.1</v>
@@ -17376,8 +17858,12 @@
       <c r="L266" t="n">
         <v>515</v>
       </c>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>415</v>
+      </c>
+      <c r="N266" t="n">
+        <v>515</v>
+      </c>
       <c r="O266" t="n">
         <v>515</v>
       </c>
@@ -17395,7 +17881,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T266" t="inlineStr"/>
+      <c r="T266" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -17423,9 +17911,11 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>860</v>
-      </c>
-      <c r="H267" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H267" t="n">
+        <v>800</v>
+      </c>
       <c r="I267" t="n">
         <v>910</v>
       </c>
@@ -17433,18 +17923,22 @@
         <v>0.1</v>
       </c>
       <c r="K267" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L267" t="n">
-        <v>660</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-      <c r="N267" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="M267" t="n">
+        <v>550</v>
+      </c>
+      <c r="N267" t="n">
+        <v>620</v>
+      </c>
       <c r="O267" t="n">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="P267" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="Q267" t="n">
         <v>22.5</v>
@@ -17457,7 +17951,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T267" t="inlineStr"/>
+      <c r="T267" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -17609,25 +18105,31 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>860</v>
-      </c>
-      <c r="H270" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H270" t="n">
+        <v>800</v>
+      </c>
       <c r="I270" t="n">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="J270" t="n">
         <v>0.1</v>
       </c>
       <c r="K270" t="n">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="L270" t="n">
-        <v>620</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-      <c r="N270" t="inlineStr"/>
+        <v>622</v>
+      </c>
+      <c r="M270" t="n">
+        <v>530</v>
+      </c>
+      <c r="N270" t="n">
+        <v>622</v>
+      </c>
       <c r="O270" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P270" t="n">
         <v>150</v>
@@ -17639,7 +18141,9 @@
         <v>192</v>
       </c>
       <c r="S270" t="inlineStr"/>
-      <c r="T270" t="inlineStr"/>
+      <c r="T270" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -17669,9 +18173,11 @@
       <c r="G271" t="n">
         <v>860</v>
       </c>
-      <c r="H271" t="inlineStr"/>
+      <c r="H271" t="n">
+        <v>800</v>
+      </c>
       <c r="I271" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J271" t="n">
         <v>0.1</v>
@@ -17682,8 +18188,12 @@
       <c r="L271" t="n">
         <v>530</v>
       </c>
-      <c r="M271" t="inlineStr"/>
-      <c r="N271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>435</v>
+      </c>
+      <c r="N271" t="n">
+        <v>530</v>
+      </c>
       <c r="O271" t="n">
         <v>530</v>
       </c>
@@ -17701,7 +18211,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T271" t="inlineStr"/>
+      <c r="T271" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -17979,9 +18491,11 @@
       <c r="G276" t="n">
         <v>860</v>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="n">
+        <v>800</v>
+      </c>
       <c r="I276" t="n">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="J276" t="n">
         <v>0.1</v>
@@ -17992,8 +18506,12 @@
       <c r="L276" t="n">
         <v>525</v>
       </c>
-      <c r="M276" t="inlineStr"/>
-      <c r="N276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>435</v>
+      </c>
+      <c r="N276" t="n">
+        <v>525</v>
+      </c>
       <c r="O276" t="n">
         <v>525</v>
       </c>
@@ -18011,7 +18529,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T276" t="inlineStr"/>
+      <c r="T276" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -18101,25 +18621,31 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>860</v>
-      </c>
-      <c r="H278" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H278" t="n">
+        <v>800</v>
+      </c>
       <c r="I278" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J278" t="n">
         <v>0.1</v>
       </c>
       <c r="K278" t="n">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="L278" t="n">
-        <v>665</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr"/>
+        <v>647</v>
+      </c>
+      <c r="M278" t="n">
+        <v>520</v>
+      </c>
+      <c r="N278" t="n">
+        <v>647</v>
+      </c>
       <c r="O278" t="n">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="P278" t="n">
         <v>185</v>
@@ -18135,7 +18661,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T278" t="inlineStr"/>
+      <c r="T278" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -18287,28 +18815,34 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>860</v>
-      </c>
-      <c r="H281" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H281" t="n">
+        <v>800</v>
+      </c>
       <c r="I281" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J281" t="n">
         <v>0.1</v>
       </c>
       <c r="K281" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L281" t="n">
-        <v>735</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-      <c r="N281" t="inlineStr"/>
+        <v>725</v>
+      </c>
+      <c r="M281" t="n">
+        <v>620</v>
+      </c>
+      <c r="N281" t="n">
+        <v>725</v>
+      </c>
       <c r="O281" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="P281" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="Q281" t="n">
         <v>22.5</v>
@@ -18321,7 +18855,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T281" t="inlineStr"/>
+      <c r="T281" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -18411,9 +18947,11 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>860</v>
-      </c>
-      <c r="H283" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H283" t="n">
+        <v>800</v>
+      </c>
       <c r="I283" t="n">
         <v>910</v>
       </c>
@@ -18426,8 +18964,12 @@
       <c r="L283" t="n">
         <v>475</v>
       </c>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
+      <c r="M283" t="n">
+        <v>375</v>
+      </c>
+      <c r="N283" t="n">
+        <v>475</v>
+      </c>
       <c r="O283" t="n">
         <v>475</v>
       </c>
@@ -18445,7 +18987,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T283" t="inlineStr"/>
+      <c r="T283" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -18475,9 +19019,11 @@
       <c r="G284" t="n">
         <v>860</v>
       </c>
-      <c r="H284" t="inlineStr"/>
+      <c r="H284" t="n">
+        <v>780</v>
+      </c>
       <c r="I284" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J284" t="n">
         <v>0.1</v>
@@ -18488,8 +19034,12 @@
       <c r="L284" t="n">
         <v>568</v>
       </c>
-      <c r="M284" t="inlineStr"/>
-      <c r="N284" t="inlineStr"/>
+      <c r="M284" t="n">
+        <v>470</v>
+      </c>
+      <c r="N284" t="n">
+        <v>568</v>
+      </c>
       <c r="O284" t="n">
         <v>568</v>
       </c>
@@ -18507,7 +19057,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T284" t="inlineStr"/>
+      <c r="T284" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -18535,11 +19087,13 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>860</v>
-      </c>
-      <c r="H285" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H285" t="n">
+        <v>780</v>
+      </c>
       <c r="I285" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J285" t="n">
         <v>0.1</v>
@@ -18548,12 +19102,16 @@
         <v>1800</v>
       </c>
       <c r="L285" t="n">
-        <v>650</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-      <c r="N285" t="inlineStr"/>
+        <v>653</v>
+      </c>
+      <c r="M285" t="n">
+        <v>550</v>
+      </c>
+      <c r="N285" t="n">
+        <v>653</v>
+      </c>
       <c r="O285" t="n">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="P285" t="n">
         <v>200</v>
@@ -18569,7 +19127,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T285" t="inlineStr"/>
+      <c r="T285" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -18721,11 +19281,13 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>860</v>
-      </c>
-      <c r="H288" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="H288" t="n">
+        <v>800</v>
+      </c>
       <c r="I288" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J288" t="n">
         <v>0.1</v>
@@ -18736,8 +19298,12 @@
       <c r="L288" t="n">
         <v>610</v>
       </c>
-      <c r="M288" t="inlineStr"/>
-      <c r="N288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>520</v>
+      </c>
+      <c r="N288" t="n">
+        <v>610</v>
+      </c>
       <c r="O288" t="n">
         <v>610</v>
       </c>
@@ -18755,7 +19321,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T288" t="inlineStr"/>
+      <c r="T288" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -18783,11 +19351,13 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>860</v>
-      </c>
-      <c r="H289" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H289" t="n">
+        <v>800</v>
+      </c>
       <c r="I289" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J289" t="n">
         <v>0.1</v>
@@ -18798,8 +19368,12 @@
       <c r="L289" t="n">
         <v>620</v>
       </c>
-      <c r="M289" t="inlineStr"/>
-      <c r="N289" t="inlineStr"/>
+      <c r="M289" t="n">
+        <v>520</v>
+      </c>
+      <c r="N289" t="n">
+        <v>620</v>
+      </c>
       <c r="O289" t="n">
         <v>620</v>
       </c>
@@ -18817,7 +19391,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T289" t="inlineStr"/>
+      <c r="T289" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -18907,11 +19483,13 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>860</v>
-      </c>
-      <c r="H291" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H291" t="n">
+        <v>800</v>
+      </c>
       <c r="I291" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J291" t="n">
         <v>0.1</v>
@@ -18922,8 +19500,12 @@
       <c r="L291" t="n">
         <v>560</v>
       </c>
-      <c r="M291" t="inlineStr"/>
-      <c r="N291" t="inlineStr"/>
+      <c r="M291" t="n">
+        <v>480</v>
+      </c>
+      <c r="N291" t="n">
+        <v>560</v>
+      </c>
       <c r="O291" t="n">
         <v>560</v>
       </c>
@@ -18941,7 +19523,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T291" t="inlineStr"/>
+      <c r="T291" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -19093,9 +19677,11 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>860</v>
-      </c>
-      <c r="H294" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H294" t="n">
+        <v>800</v>
+      </c>
       <c r="I294" t="n">
         <v>910</v>
       </c>
@@ -19103,18 +19689,22 @@
         <v>0.1</v>
       </c>
       <c r="K294" t="n">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="L294" t="n">
-        <v>665</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-      <c r="N294" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M294" t="n">
+        <v>430</v>
+      </c>
+      <c r="N294" t="n">
+        <v>525</v>
+      </c>
       <c r="O294" t="n">
-        <v>665</v>
+        <v>525</v>
       </c>
       <c r="P294" t="n">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="Q294" t="n">
         <v>20</v>
@@ -19127,7 +19717,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T294" t="inlineStr"/>
+      <c r="T294" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -19403,11 +19995,13 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>860</v>
-      </c>
-      <c r="H299" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H299" t="n">
+        <v>780</v>
+      </c>
       <c r="I299" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="J299" t="n">
         <v>0.1</v>
@@ -19416,15 +20010,19 @@
         <v>1600</v>
       </c>
       <c r="L299" t="n">
-        <v>732</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-      <c r="N299" t="inlineStr"/>
+        <v>610</v>
+      </c>
+      <c r="M299" t="n">
+        <v>545</v>
+      </c>
+      <c r="N299" t="n">
+        <v>610</v>
+      </c>
       <c r="O299" t="n">
-        <v>732</v>
+        <v>610</v>
       </c>
       <c r="P299" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="Q299" t="n">
         <v>16</v>
@@ -19437,7 +20035,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T299" t="inlineStr"/>
+      <c r="T299" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -19465,11 +20065,13 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>860</v>
-      </c>
-      <c r="H300" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H300" t="n">
+        <v>800</v>
+      </c>
       <c r="I300" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J300" t="n">
         <v>0.1</v>
@@ -19480,8 +20082,12 @@
       <c r="L300" t="n">
         <v>720</v>
       </c>
-      <c r="M300" t="inlineStr"/>
-      <c r="N300" t="inlineStr"/>
+      <c r="M300" t="n">
+        <v>660</v>
+      </c>
+      <c r="N300" t="n">
+        <v>720</v>
+      </c>
       <c r="O300" t="n">
         <v>720</v>
       </c>
@@ -19499,7 +20105,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T300" t="inlineStr"/>
+      <c r="T300" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -19589,28 +20197,34 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>860</v>
-      </c>
-      <c r="H302" t="inlineStr"/>
+        <v>840</v>
+      </c>
+      <c r="H302" t="n">
+        <v>800</v>
+      </c>
       <c r="I302" t="n">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="J302" t="n">
         <v>0.1</v>
       </c>
       <c r="K302" t="n">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="L302" t="n">
-        <v>675</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-      <c r="N302" t="inlineStr"/>
+        <v>570</v>
+      </c>
+      <c r="M302" t="n">
+        <v>475</v>
+      </c>
+      <c r="N302" t="n">
+        <v>570</v>
+      </c>
       <c r="O302" t="n">
-        <v>675</v>
+        <v>570</v>
       </c>
       <c r="P302" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q302" t="n">
         <v>21.81818181818182</v>
@@ -19623,7 +20237,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T302" t="inlineStr"/>
+      <c r="T302" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -19651,26 +20267,34 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>860</v>
-      </c>
-      <c r="H303" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H303" t="n">
+        <v>800</v>
+      </c>
       <c r="I303" t="n">
         <v>910</v>
       </c>
       <c r="J303" t="n">
         <v>4.911323328785811</v>
       </c>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1700</v>
+      </c>
       <c r="L303" t="n">
-        <v>733</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-      <c r="N303" t="inlineStr"/>
+        <v>720</v>
+      </c>
+      <c r="M303" t="n">
+        <v>630</v>
+      </c>
+      <c r="N303" t="n">
+        <v>720</v>
+      </c>
       <c r="O303" t="n">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="P303" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q303" t="n">
         <v>19.45945945945946</v>
@@ -19679,7 +20303,9 @@
         <v>155.6756756756757</v>
       </c>
       <c r="S303" t="inlineStr"/>
-      <c r="T303" t="inlineStr"/>
+      <c r="T303" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -19765,11 +20391,13 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>860</v>
-      </c>
-      <c r="H305" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H305" t="n">
+        <v>800</v>
+      </c>
       <c r="I305" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J305" t="n">
         <v>0.1</v>
@@ -19780,8 +20408,12 @@
       <c r="L305" t="n">
         <v>567</v>
       </c>
-      <c r="M305" t="inlineStr"/>
-      <c r="N305" t="inlineStr"/>
+      <c r="M305" t="n">
+        <v>500</v>
+      </c>
+      <c r="N305" t="n">
+        <v>567</v>
+      </c>
       <c r="O305" t="n">
         <v>567</v>
       </c>
@@ -19799,7 +20431,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T305" t="inlineStr"/>
+      <c r="T305" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -20013,11 +20647,13 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>860</v>
-      </c>
-      <c r="H309" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H309" t="n">
+        <v>800</v>
+      </c>
       <c r="I309" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J309" t="n">
         <v>0.1</v>
@@ -20026,12 +20662,16 @@
         <v>1800</v>
       </c>
       <c r="L309" t="n">
-        <v>625</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-      <c r="N309" t="inlineStr"/>
+        <v>615</v>
+      </c>
+      <c r="M309" t="n">
+        <v>530</v>
+      </c>
+      <c r="N309" t="n">
+        <v>615</v>
+      </c>
       <c r="O309" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="P309" t="n">
         <v>210</v>
@@ -20047,7 +20687,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T309" t="inlineStr"/>
+      <c r="T309" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -20075,11 +20717,13 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>860</v>
-      </c>
-      <c r="H310" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H310" t="n">
+        <v>800</v>
+      </c>
       <c r="I310" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J310" t="n">
         <v>0.1</v>
@@ -20090,8 +20734,12 @@
       <c r="L310" t="n">
         <v>520</v>
       </c>
-      <c r="M310" t="inlineStr"/>
-      <c r="N310" t="inlineStr"/>
+      <c r="M310" t="n">
+        <v>470</v>
+      </c>
+      <c r="N310" t="n">
+        <v>520</v>
+      </c>
       <c r="O310" t="n">
         <v>520</v>
       </c>
@@ -20109,7 +20757,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T310" t="inlineStr"/>
+      <c r="T310" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -20199,11 +20849,13 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>860</v>
-      </c>
-      <c r="H312" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H312" t="n">
+        <v>800</v>
+      </c>
       <c r="I312" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J312" t="n">
         <v>0.1</v>
@@ -20214,8 +20866,12 @@
       <c r="L312" t="n">
         <v>685</v>
       </c>
-      <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr"/>
+      <c r="M312" t="n">
+        <v>600</v>
+      </c>
+      <c r="N312" t="n">
+        <v>685</v>
+      </c>
       <c r="O312" t="n">
         <v>685</v>
       </c>
@@ -20233,7 +20889,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T312" t="inlineStr"/>
+      <c r="T312" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -20261,11 +20919,13 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>860</v>
-      </c>
-      <c r="H313" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H313" t="n">
+        <v>800</v>
+      </c>
       <c r="I313" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J313" t="n">
         <v>0.1</v>
@@ -20276,8 +20936,12 @@
       <c r="L313" t="n">
         <v>630</v>
       </c>
-      <c r="M313" t="inlineStr"/>
-      <c r="N313" t="inlineStr"/>
+      <c r="M313" t="n">
+        <v>530</v>
+      </c>
+      <c r="N313" t="n">
+        <v>630</v>
+      </c>
       <c r="O313" t="n">
         <v>630</v>
       </c>
@@ -20295,7 +20959,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T313" t="inlineStr"/>
+      <c r="T313" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -20571,28 +21237,34 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>860</v>
-      </c>
-      <c r="H318" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H318" t="n">
+        <v>800</v>
+      </c>
       <c r="I318" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J318" t="n">
         <v>0.1</v>
       </c>
       <c r="K318" t="n">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="L318" t="n">
-        <v>728</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-      <c r="N318" t="inlineStr"/>
+        <v>730</v>
+      </c>
+      <c r="M318" t="n">
+        <v>660</v>
+      </c>
+      <c r="N318" t="n">
+        <v>730</v>
+      </c>
       <c r="O318" t="n">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="P318" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q318" t="n">
         <v>18</v>
@@ -20605,7 +21277,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T318" t="inlineStr"/>
+      <c r="T318" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -20695,11 +21369,13 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>860</v>
-      </c>
-      <c r="H320" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H320" t="n">
+        <v>800</v>
+      </c>
       <c r="I320" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J320" t="n">
         <v>0.1</v>
@@ -20710,8 +21386,12 @@
       <c r="L320" t="n">
         <v>525</v>
       </c>
-      <c r="M320" t="inlineStr"/>
-      <c r="N320" t="inlineStr"/>
+      <c r="M320" t="n">
+        <v>435</v>
+      </c>
+      <c r="N320" t="n">
+        <v>525</v>
+      </c>
       <c r="O320" t="n">
         <v>525</v>
       </c>
@@ -20729,7 +21409,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T320" t="inlineStr"/>
+      <c r="T320" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -20881,25 +21563,31 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>860</v>
-      </c>
-      <c r="H323" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H323" t="n">
+        <v>800</v>
+      </c>
       <c r="I323" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J323" t="n">
         <v>0.1</v>
       </c>
       <c r="K323" t="n">
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="L323" t="n">
-        <v>627</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-      <c r="N323" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="M323" t="n">
+        <v>565</v>
+      </c>
+      <c r="N323" t="n">
+        <v>625</v>
+      </c>
       <c r="O323" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P323" t="n">
         <v>195</v>
@@ -20915,7 +21603,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T323" t="inlineStr"/>
+      <c r="T323" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -21067,28 +21757,34 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>860</v>
-      </c>
-      <c r="H326" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H326" t="n">
+        <v>800</v>
+      </c>
       <c r="I326" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J326" t="n">
         <v>0.1</v>
       </c>
       <c r="K326" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L326" t="n">
-        <v>732</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-      <c r="N326" t="inlineStr"/>
+        <v>618</v>
+      </c>
+      <c r="M326" t="n">
+        <v>550</v>
+      </c>
+      <c r="N326" t="n">
+        <v>618</v>
+      </c>
       <c r="O326" t="n">
-        <v>732</v>
+        <v>618</v>
       </c>
       <c r="P326" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="Q326" t="n">
         <v>18</v>
@@ -21101,7 +21797,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T326" t="inlineStr"/>
+      <c r="T326" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -21253,11 +21951,13 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>860</v>
-      </c>
-      <c r="H329" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H329" t="n">
+        <v>800</v>
+      </c>
       <c r="I329" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J329" t="n">
         <v>0.1</v>
@@ -21268,8 +21968,12 @@
       <c r="L329" t="n">
         <v>535</v>
       </c>
-      <c r="M329" t="inlineStr"/>
-      <c r="N329" t="inlineStr"/>
+      <c r="M329" t="n">
+        <v>460</v>
+      </c>
+      <c r="N329" t="n">
+        <v>535</v>
+      </c>
       <c r="O329" t="n">
         <v>535</v>
       </c>
@@ -21287,7 +21991,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T329" t="inlineStr"/>
+      <c r="T329" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -21439,11 +22145,13 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>860</v>
-      </c>
-      <c r="H332" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H332" t="n">
+        <v>800</v>
+      </c>
       <c r="I332" t="n">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="J332" t="n">
         <v>0.1</v>
@@ -21454,8 +22162,12 @@
       <c r="L332" t="n">
         <v>613</v>
       </c>
-      <c r="M332" t="inlineStr"/>
-      <c r="N332" t="inlineStr"/>
+      <c r="M332" t="n">
+        <v>530</v>
+      </c>
+      <c r="N332" t="n">
+        <v>613</v>
+      </c>
       <c r="O332" t="n">
         <v>613</v>
       </c>
@@ -21473,7 +22185,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T332" t="inlineStr"/>
+      <c r="T332" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -21563,11 +22277,13 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>860</v>
-      </c>
-      <c r="H334" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H334" t="n">
+        <v>800</v>
+      </c>
       <c r="I334" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J334" t="n">
         <v>0.1</v>
@@ -21576,15 +22292,19 @@
         <v>1750</v>
       </c>
       <c r="L334" t="n">
-        <v>530</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-      <c r="N334" t="inlineStr"/>
+        <v>665</v>
+      </c>
+      <c r="M334" t="n">
+        <v>565</v>
+      </c>
+      <c r="N334" t="n">
+        <v>665</v>
+      </c>
       <c r="O334" t="n">
-        <v>530</v>
+        <v>665</v>
       </c>
       <c r="P334" t="n">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -21597,7 +22317,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T334" t="inlineStr"/>
+      <c r="T334" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -21811,11 +22533,13 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>860</v>
-      </c>
-      <c r="H338" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H338" t="n">
+        <v>780</v>
+      </c>
       <c r="I338" t="n">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="J338" t="n">
         <v>0.1</v>
@@ -21826,8 +22550,12 @@
       <c r="L338" t="n">
         <v>615</v>
       </c>
-      <c r="M338" t="inlineStr"/>
-      <c r="N338" t="inlineStr"/>
+      <c r="M338" t="n">
+        <v>545</v>
+      </c>
+      <c r="N338" t="n">
+        <v>615</v>
+      </c>
       <c r="O338" t="n">
         <v>615</v>
       </c>
@@ -21845,7 +22573,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T338" t="inlineStr"/>
+      <c r="T338" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -21935,28 +22665,34 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>860</v>
-      </c>
-      <c r="H340" t="inlineStr"/>
+        <v>870</v>
+      </c>
+      <c r="H340" t="n">
+        <v>800</v>
+      </c>
       <c r="I340" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="J340" t="n">
         <v>0.1</v>
       </c>
       <c r="K340" t="n">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="L340" t="n">
-        <v>665</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-      <c r="N340" t="inlineStr"/>
+        <v>535</v>
+      </c>
+      <c r="M340" t="n">
+        <v>435</v>
+      </c>
+      <c r="N340" t="n">
+        <v>535</v>
+      </c>
       <c r="O340" t="n">
-        <v>665</v>
+        <v>535</v>
       </c>
       <c r="P340" t="n">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="Q340" t="n">
         <v>20.93023255813954</v>
@@ -21969,7 +22705,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T340" t="inlineStr"/>
+      <c r="T340" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -22121,11 +22859,13 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>860</v>
-      </c>
-      <c r="H343" t="inlineStr"/>
+        <v>880</v>
+      </c>
+      <c r="H343" t="n">
+        <v>800</v>
+      </c>
       <c r="I343" t="n">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J343" t="n">
         <v>0.1</v>
@@ -22136,8 +22876,12 @@
       <c r="L343" t="n">
         <v>615</v>
       </c>
-      <c r="M343" t="inlineStr"/>
-      <c r="N343" t="inlineStr"/>
+      <c r="M343" t="n">
+        <v>530</v>
+      </c>
+      <c r="N343" t="n">
+        <v>615</v>
+      </c>
       <c r="O343" t="n">
         <v>615</v>
       </c>
@@ -22155,7 +22899,9 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="T343" t="inlineStr"/>
+      <c r="T343" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
